--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19995" windowHeight="11730" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES  ENERO  2023     " sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="   REMISIONES     MARZO   2023 " sheetId="4" r:id="rId3"/>
     <sheet name=" REMISIONES   ABRIL  2023    " sheetId="5" r:id="rId4"/>
     <sheet name="   REMISIONES   MAYO   2023    " sheetId="6" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId6"/>
+    <sheet name="REMISIONES  JUNIO   2023  " sheetId="8" r:id="rId6"/>
     <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="120">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>3-Jun-23--4-Jun-23</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE    JUNIO      2 0 2 3</t>
+  </si>
+  <si>
+    <t>5-Jun-23--</t>
   </si>
 </sst>
 </file>
@@ -996,9 +1002,9 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFCC"/>
     </mruColors>
   </colors>
@@ -1568,6 +1574,117 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA8ED25-5E55-4F35-9A11-570092F029FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="39695440"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2272C1A0-23C1-416E-8467-7A61862AE18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="39743067"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -11894,9 +12011,9 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14583,8 +14700,8 @@
       <c r="E105" s="22">
         <v>3303</v>
       </c>
-      <c r="F105" s="23"/>
-      <c r="G105" s="32"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="20">
         <f t="shared" si="0"/>
         <v>3303</v>
@@ -14736,8 +14853,8 @@
       <c r="E111" s="22">
         <v>10600</v>
       </c>
-      <c r="F111" s="23"/>
-      <c r="G111" s="32"/>
+      <c r="F111" s="67"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="20">
         <f t="shared" si="0"/>
         <v>10600</v>
@@ -14758,11 +14875,15 @@
       <c r="E112" s="22">
         <v>9720</v>
       </c>
-      <c r="F112" s="23"/>
-      <c r="G112" s="32"/>
+      <c r="F112" s="67">
+        <v>45082</v>
+      </c>
+      <c r="G112" s="68">
+        <v>9720</v>
+      </c>
       <c r="H112" s="20">
         <f t="shared" si="0"/>
-        <v>9720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14885,11 +15006,16 @@
       <c r="E117" s="22">
         <v>711</v>
       </c>
-      <c r="F117" s="23"/>
-      <c r="G117" s="32"/>
+      <c r="F117" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="G117" s="68">
+        <f>500</f>
+        <v>500</v>
+      </c>
       <c r="H117" s="20">
         <f t="shared" si="0"/>
-        <v>711</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14907,11 +15033,15 @@
       <c r="E118" s="22">
         <v>10624</v>
       </c>
-      <c r="F118" s="23"/>
-      <c r="G118" s="32"/>
+      <c r="F118" s="67">
+        <v>45082</v>
+      </c>
+      <c r="G118" s="68">
+        <v>10624</v>
+      </c>
       <c r="H118" s="20">
         <f t="shared" si="0"/>
-        <v>10624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14929,11 +15059,15 @@
       <c r="E119" s="22">
         <v>2816</v>
       </c>
-      <c r="F119" s="23"/>
-      <c r="G119" s="32"/>
+      <c r="F119" s="67">
+        <v>45082</v>
+      </c>
+      <c r="G119" s="68">
+        <v>2816</v>
+      </c>
       <c r="H119" s="20">
         <f t="shared" si="0"/>
-        <v>2816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14951,8 +15085,8 @@
       <c r="E120" s="22">
         <v>3650</v>
       </c>
-      <c r="F120" s="23"/>
-      <c r="G120" s="32"/>
+      <c r="F120" s="67"/>
+      <c r="G120" s="68"/>
       <c r="H120" s="20">
         <f t="shared" si="0"/>
         <v>3650</v>
@@ -15008,11 +15142,11 @@
       <c r="F124" s="47"/>
       <c r="G124" s="47">
         <f>SUM(G4:G123)</f>
-        <v>405567</v>
+        <v>429227</v>
       </c>
       <c r="H124" s="48">
         <f>SUM(H4:H123)</f>
-        <v>41424</v>
+        <v>17764</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -15056,7 +15190,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="87">
         <f>E124-G124</f>
-        <v>41424</v>
+        <v>17764</v>
       </c>
       <c r="F128" s="88"/>
       <c r="G128" s="89"/>
@@ -15197,13 +15331,2223 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="58" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="18" style="66" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>45082</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1423</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="18">
+        <v>15138</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="62">
+        <f>15138</f>
+        <v>15138</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H123" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>45082</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1424</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="22">
+        <v>5072</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="32">
+        <f>4572</f>
+        <v>4572</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>45082</v>
+      </c>
+      <c r="B6" s="15">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>1425</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1288</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>45082</v>
+      </c>
+      <c r="B7" s="15">
+        <f t="shared" si="1"/>
+        <v>1426</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22">
+        <v>3608</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>45082</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" si="1"/>
+        <v>1427</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="22">
+        <v>3326</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15">
+        <f t="shared" si="1"/>
+        <v>1428</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15">
+        <f t="shared" si="1"/>
+        <v>1429</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15">
+        <f t="shared" si="1"/>
+        <v>1430</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15">
+        <f t="shared" si="1"/>
+        <v>1431</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15">
+        <f t="shared" si="1"/>
+        <v>1432</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <f t="shared" si="1"/>
+        <v>1433</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15">
+        <f t="shared" si="1"/>
+        <v>1434</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15">
+        <f t="shared" si="1"/>
+        <v>1435</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <f t="shared" si="1"/>
+        <v>1436</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15">
+        <f t="shared" si="1"/>
+        <v>1437</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15">
+        <f t="shared" si="1"/>
+        <v>1438</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <f t="shared" si="1"/>
+        <v>1439</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15">
+        <f t="shared" si="1"/>
+        <v>1440</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15">
+        <f t="shared" si="1"/>
+        <v>1441</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15">
+        <f t="shared" si="1"/>
+        <v>1442</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15">
+        <f t="shared" si="1"/>
+        <v>1443</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15">
+        <f t="shared" si="1"/>
+        <v>1444</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <f t="shared" si="1"/>
+        <v>1445</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15">
+        <f t="shared" si="1"/>
+        <v>1446</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15">
+        <f t="shared" si="1"/>
+        <v>1447</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70">
+        <f t="shared" si="1"/>
+        <v>1448</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="70">
+        <f t="shared" si="1"/>
+        <v>1449</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70">
+        <f t="shared" si="1"/>
+        <v>1450</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70">
+        <f t="shared" si="1"/>
+        <v>1451</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70">
+        <f t="shared" si="1"/>
+        <v>1452</v>
+      </c>
+      <c r="C33" s="71"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70">
+        <f t="shared" si="1"/>
+        <v>1453</v>
+      </c>
+      <c r="C34" s="71"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70">
+        <f t="shared" si="1"/>
+        <v>1454</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="70">
+        <f t="shared" si="1"/>
+        <v>1455</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="70">
+        <f t="shared" si="1"/>
+        <v>1456</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70">
+        <f t="shared" si="1"/>
+        <v>1457</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="70">
+        <f t="shared" si="1"/>
+        <v>1458</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+      <c r="B40" s="70">
+        <f t="shared" si="1"/>
+        <v>1459</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="70">
+        <f t="shared" si="1"/>
+        <v>1460</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="69"/>
+      <c r="B42" s="70">
+        <f t="shared" si="1"/>
+        <v>1461</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="70">
+        <f t="shared" si="1"/>
+        <v>1462</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+      <c r="B44" s="70">
+        <f t="shared" si="1"/>
+        <v>1463</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+      <c r="B45" s="70">
+        <f t="shared" si="1"/>
+        <v>1464</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+      <c r="B46" s="70">
+        <f t="shared" si="1"/>
+        <v>1465</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="70">
+        <f t="shared" si="1"/>
+        <v>1466</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="70">
+        <f t="shared" si="1"/>
+        <v>1467</v>
+      </c>
+      <c r="C48" s="71"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69"/>
+      <c r="B49" s="70">
+        <f t="shared" si="1"/>
+        <v>1468</v>
+      </c>
+      <c r="C49" s="71"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="69"/>
+      <c r="B50" s="70">
+        <f t="shared" si="1"/>
+        <v>1469</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69"/>
+      <c r="B51" s="70">
+        <f t="shared" si="1"/>
+        <v>1470</v>
+      </c>
+      <c r="C51" s="71"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="69"/>
+      <c r="B52" s="70">
+        <f t="shared" si="1"/>
+        <v>1471</v>
+      </c>
+      <c r="C52" s="71"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70">
+        <f t="shared" si="1"/>
+        <v>1472</v>
+      </c>
+      <c r="C53" s="71"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="69"/>
+      <c r="B54" s="70">
+        <f t="shared" si="1"/>
+        <v>1473</v>
+      </c>
+      <c r="C54" s="71"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="70">
+        <f t="shared" si="1"/>
+        <v>1474</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="69"/>
+      <c r="B56" s="70">
+        <f t="shared" si="1"/>
+        <v>1475</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+      <c r="B57" s="70">
+        <f t="shared" si="1"/>
+        <v>1476</v>
+      </c>
+      <c r="C57" s="71"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="69"/>
+      <c r="B58" s="70">
+        <f t="shared" si="1"/>
+        <v>1477</v>
+      </c>
+      <c r="C58" s="71"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="69"/>
+      <c r="B59" s="70">
+        <f t="shared" si="1"/>
+        <v>1478</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+      <c r="B60" s="70">
+        <f t="shared" si="1"/>
+        <v>1479</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="70">
+        <f t="shared" si="1"/>
+        <v>1480</v>
+      </c>
+      <c r="C61" s="71"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="69"/>
+      <c r="B62" s="70">
+        <f t="shared" si="1"/>
+        <v>1481</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="69"/>
+      <c r="B63" s="70">
+        <f t="shared" si="1"/>
+        <v>1482</v>
+      </c>
+      <c r="C63" s="71"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="69"/>
+      <c r="B64" s="70">
+        <f t="shared" si="1"/>
+        <v>1483</v>
+      </c>
+      <c r="C64" s="71"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="73"/>
+      <c r="B65" s="70">
+        <f t="shared" si="1"/>
+        <v>1484</v>
+      </c>
+      <c r="C65" s="71"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="70">
+        <f t="shared" si="1"/>
+        <v>1485</v>
+      </c>
+      <c r="C66" s="71"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="70">
+        <f t="shared" si="1"/>
+        <v>1486</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="73"/>
+      <c r="B68" s="70">
+        <f t="shared" si="1"/>
+        <v>1487</v>
+      </c>
+      <c r="C68" s="71"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="73"/>
+      <c r="B69" s="70">
+        <f t="shared" si="1"/>
+        <v>1488</v>
+      </c>
+      <c r="C69" s="71"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="73"/>
+      <c r="B70" s="70">
+        <f t="shared" ref="B70:B120" si="2">B69+1</f>
+        <v>1489</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="82"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="73"/>
+      <c r="B71" s="70">
+        <f t="shared" si="2"/>
+        <v>1490</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="82"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="73"/>
+      <c r="B72" s="70">
+        <f t="shared" si="2"/>
+        <v>1491</v>
+      </c>
+      <c r="C72" s="71"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="73"/>
+      <c r="B73" s="70">
+        <f t="shared" si="2"/>
+        <v>1492</v>
+      </c>
+      <c r="C73" s="71"/>
+      <c r="D73" s="82"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="73"/>
+      <c r="B74" s="70">
+        <f t="shared" si="2"/>
+        <v>1493</v>
+      </c>
+      <c r="C74" s="71"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="73"/>
+      <c r="B75" s="70">
+        <f t="shared" si="2"/>
+        <v>1494</v>
+      </c>
+      <c r="C75" s="71"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73"/>
+      <c r="B76" s="70">
+        <f t="shared" si="2"/>
+        <v>1495</v>
+      </c>
+      <c r="C76" s="71"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="73"/>
+      <c r="B77" s="70">
+        <f t="shared" si="2"/>
+        <v>1496</v>
+      </c>
+      <c r="C77" s="71"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73"/>
+      <c r="B78" s="70">
+        <f t="shared" si="2"/>
+        <v>1497</v>
+      </c>
+      <c r="C78" s="71"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="73"/>
+      <c r="B79" s="70">
+        <f t="shared" si="2"/>
+        <v>1498</v>
+      </c>
+      <c r="C79" s="71"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="73"/>
+      <c r="B80" s="70">
+        <f t="shared" si="2"/>
+        <v>1499</v>
+      </c>
+      <c r="C80" s="71"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="73"/>
+      <c r="B81" s="70">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="C81" s="71"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73"/>
+      <c r="B82" s="70">
+        <f t="shared" si="2"/>
+        <v>1501</v>
+      </c>
+      <c r="C82" s="71"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73"/>
+      <c r="B83" s="70">
+        <f t="shared" si="2"/>
+        <v>1502</v>
+      </c>
+      <c r="C83" s="71"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73"/>
+      <c r="B84" s="70">
+        <f t="shared" si="2"/>
+        <v>1503</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73"/>
+      <c r="B85" s="70">
+        <f t="shared" si="2"/>
+        <v>1504</v>
+      </c>
+      <c r="C85" s="71"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="73"/>
+      <c r="B86" s="70">
+        <f t="shared" si="2"/>
+        <v>1505</v>
+      </c>
+      <c r="C86" s="71"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73"/>
+      <c r="B87" s="70">
+        <f t="shared" si="2"/>
+        <v>1506</v>
+      </c>
+      <c r="C87" s="71"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73"/>
+      <c r="B88" s="70">
+        <f t="shared" si="2"/>
+        <v>1507</v>
+      </c>
+      <c r="C88" s="71"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="73"/>
+      <c r="B89" s="70">
+        <f t="shared" si="2"/>
+        <v>1508</v>
+      </c>
+      <c r="C89" s="71"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="73"/>
+      <c r="B90" s="70">
+        <f t="shared" si="2"/>
+        <v>1509</v>
+      </c>
+      <c r="C90" s="71"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="73"/>
+      <c r="B91" s="70">
+        <f t="shared" si="2"/>
+        <v>1510</v>
+      </c>
+      <c r="C91" s="71"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="73"/>
+      <c r="B92" s="70">
+        <f t="shared" si="2"/>
+        <v>1511</v>
+      </c>
+      <c r="C92" s="71"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="73"/>
+      <c r="B93" s="70">
+        <f t="shared" si="2"/>
+        <v>1512</v>
+      </c>
+      <c r="C93" s="71"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="73"/>
+      <c r="B94" s="70">
+        <f t="shared" si="2"/>
+        <v>1513</v>
+      </c>
+      <c r="C94" s="71"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="73"/>
+      <c r="B95" s="70">
+        <f t="shared" si="2"/>
+        <v>1514</v>
+      </c>
+      <c r="C95" s="71"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="73"/>
+      <c r="B96" s="70">
+        <f t="shared" si="2"/>
+        <v>1515</v>
+      </c>
+      <c r="C96" s="71"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="73"/>
+      <c r="B97" s="70">
+        <f t="shared" si="2"/>
+        <v>1516</v>
+      </c>
+      <c r="C97" s="71"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73"/>
+      <c r="B98" s="70">
+        <f t="shared" si="2"/>
+        <v>1517</v>
+      </c>
+      <c r="C98" s="71"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="73"/>
+      <c r="B99" s="70">
+        <f t="shared" si="2"/>
+        <v>1518</v>
+      </c>
+      <c r="C99" s="71"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="73"/>
+      <c r="B100" s="70">
+        <f t="shared" si="2"/>
+        <v>1519</v>
+      </c>
+      <c r="C100" s="71"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="73"/>
+      <c r="B101" s="70">
+        <f t="shared" si="2"/>
+        <v>1520</v>
+      </c>
+      <c r="C101" s="71"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="73"/>
+      <c r="B102" s="70">
+        <f t="shared" si="2"/>
+        <v>1521</v>
+      </c>
+      <c r="C102" s="71"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="73"/>
+      <c r="B103" s="70">
+        <f t="shared" si="2"/>
+        <v>1522</v>
+      </c>
+      <c r="C103" s="71"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="73"/>
+      <c r="B104" s="70">
+        <f t="shared" si="2"/>
+        <v>1523</v>
+      </c>
+      <c r="C104" s="71"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="73"/>
+      <c r="B105" s="70">
+        <f t="shared" si="2"/>
+        <v>1524</v>
+      </c>
+      <c r="C105" s="71"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="73"/>
+      <c r="B106" s="70">
+        <f t="shared" si="2"/>
+        <v>1525</v>
+      </c>
+      <c r="C106" s="71"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="73"/>
+      <c r="B107" s="70">
+        <f t="shared" si="2"/>
+        <v>1526</v>
+      </c>
+      <c r="C107" s="71"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="73"/>
+      <c r="B108" s="70">
+        <f t="shared" si="2"/>
+        <v>1527</v>
+      </c>
+      <c r="C108" s="71"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="73"/>
+      <c r="B109" s="70">
+        <f t="shared" si="2"/>
+        <v>1528</v>
+      </c>
+      <c r="C109" s="71"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="73"/>
+      <c r="B110" s="70">
+        <f t="shared" si="2"/>
+        <v>1529</v>
+      </c>
+      <c r="C110" s="71"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="73"/>
+      <c r="B111" s="70">
+        <f t="shared" si="2"/>
+        <v>1530</v>
+      </c>
+      <c r="C111" s="71"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="73"/>
+      <c r="B112" s="70">
+        <f t="shared" si="2"/>
+        <v>1531</v>
+      </c>
+      <c r="C112" s="71"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="73"/>
+      <c r="B113" s="70">
+        <f t="shared" si="2"/>
+        <v>1532</v>
+      </c>
+      <c r="C113" s="71"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="73"/>
+      <c r="B114" s="70">
+        <f t="shared" si="2"/>
+        <v>1533</v>
+      </c>
+      <c r="C114" s="71"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="73"/>
+      <c r="B115" s="70">
+        <f t="shared" si="2"/>
+        <v>1534</v>
+      </c>
+      <c r="C115" s="71"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="73"/>
+      <c r="B116" s="70">
+        <f t="shared" si="2"/>
+        <v>1535</v>
+      </c>
+      <c r="C116" s="71"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="73"/>
+      <c r="B117" s="70">
+        <f t="shared" si="2"/>
+        <v>1536</v>
+      </c>
+      <c r="C117" s="71"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="73"/>
+      <c r="B118" s="70">
+        <f t="shared" si="2"/>
+        <v>1537</v>
+      </c>
+      <c r="C118" s="71"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="73"/>
+      <c r="B119" s="70">
+        <f t="shared" si="2"/>
+        <v>1538</v>
+      </c>
+      <c r="C119" s="71"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="73"/>
+      <c r="B120" s="70">
+        <f t="shared" si="2"/>
+        <v>1539</v>
+      </c>
+      <c r="C120" s="71"/>
+      <c r="D120" s="35"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="73"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="73"/>
+      <c r="B122" s="70"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="46">
+        <f>SUM(E4:E123)</f>
+        <v>28432</v>
+      </c>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47">
+        <f>SUM(G4:G123)</f>
+        <v>19710</v>
+      </c>
+      <c r="H124" s="48">
+        <f>SUM(H4:H123)</f>
+        <v>8722</v>
+      </c>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="44"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="64"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B126" s="44"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="50"/>
+      <c r="G126" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126" s="51"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="44"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="52"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="53"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B128" s="44"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="87">
+        <f>E124-G124</f>
+        <v>8722</v>
+      </c>
+      <c r="F128" s="88"/>
+      <c r="G128" s="89"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="44"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="64"/>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B130" s="44"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="90"/>
+      <c r="G130" s="90"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="44"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="64"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A132" s="24"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="65"/>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="44"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="64"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="44"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="64"/>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="44"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="64"/>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="44"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="64"/>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="44"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="64"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="44"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="64"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="44"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="64"/>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="44"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="64"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="44"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="64"/>
+      <c r="I141" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E130:G130"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="127">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -390,6 +390,27 @@
   </si>
   <si>
     <t>5-Jun-23--</t>
+  </si>
+  <si>
+    <t>5-Jun-23--6-Jun-23</t>
+  </si>
+  <si>
+    <t>8-Jun-23--9-Jun-23</t>
+  </si>
+  <si>
+    <t>9-Jun-23--</t>
+  </si>
+  <si>
+    <t>8-Jun-23--10-Jun-23</t>
+  </si>
+  <si>
+    <t>9-Jun-23--10-Jun-23</t>
+  </si>
+  <si>
+    <t>10-Jun-23--22-Jun-23</t>
+  </si>
+  <si>
+    <t>10-Jun-23--11-Jun-23</t>
   </si>
 </sst>
 </file>
@@ -12012,8 +12033,8 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
+      <pane ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14700,11 +14721,15 @@
       <c r="E105" s="22">
         <v>3303</v>
       </c>
-      <c r="F105" s="67"/>
-      <c r="G105" s="68"/>
+      <c r="F105" s="67">
+        <v>45084</v>
+      </c>
+      <c r="G105" s="68">
+        <v>3303</v>
+      </c>
       <c r="H105" s="20">
         <f t="shared" si="0"/>
-        <v>3303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -14853,11 +14878,15 @@
       <c r="E111" s="22">
         <v>10600</v>
       </c>
-      <c r="F111" s="67"/>
-      <c r="G111" s="68"/>
+      <c r="F111" s="67">
+        <v>45088</v>
+      </c>
+      <c r="G111" s="68">
+        <v>10600</v>
+      </c>
       <c r="H111" s="20">
         <f t="shared" si="0"/>
-        <v>10600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14991,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A117" s="73">
         <v>45081</v>
       </c>
@@ -15007,15 +15036,15 @@
         <v>711</v>
       </c>
       <c r="F117" s="67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G117" s="68">
-        <f>500</f>
-        <v>500</v>
+        <f>500+211</f>
+        <v>711</v>
       </c>
       <c r="H117" s="20">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15085,11 +15114,15 @@
       <c r="E120" s="22">
         <v>3650</v>
       </c>
-      <c r="F120" s="67"/>
-      <c r="G120" s="68"/>
+      <c r="F120" s="67">
+        <v>45087</v>
+      </c>
+      <c r="G120" s="68">
+        <v>3650</v>
+      </c>
       <c r="H120" s="20">
         <f t="shared" si="0"/>
-        <v>3650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15142,11 +15175,11 @@
       <c r="F124" s="47"/>
       <c r="G124" s="47">
         <f>SUM(G4:G123)</f>
-        <v>429227</v>
+        <v>446991</v>
       </c>
       <c r="H124" s="48">
         <f>SUM(H4:H123)</f>
-        <v>17764</v>
+        <v>0</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -15190,7 +15223,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="87">
         <f>E124-G124</f>
-        <v>17764</v>
+        <v>0</v>
       </c>
       <c r="F128" s="88"/>
       <c r="G128" s="89"/>
@@ -15336,8 +15369,8 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15431,7 +15464,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>45082</v>
       </c>
@@ -15446,15 +15479,15 @@
         <v>5072</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G5" s="32">
-        <f>4572</f>
-        <v>4572</v>
+        <f>4572+500</f>
+        <v>5072</v>
       </c>
       <c r="H5" s="20">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15472,11 +15505,15 @@
       <c r="E6" s="22">
         <v>1288</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="23">
+        <v>45083</v>
+      </c>
+      <c r="G6" s="32">
+        <v>1288</v>
+      </c>
       <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v>1288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15494,11 +15531,15 @@
       <c r="E7" s="22">
         <v>3608</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="23">
+        <v>45083</v>
+      </c>
+      <c r="G7" s="32">
+        <v>3608</v>
+      </c>
       <c r="H7" s="20">
         <f t="shared" si="0"/>
-        <v>3608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15516,443 +15557,702 @@
       <c r="E8" s="22">
         <v>3326</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="23">
+        <v>45085</v>
+      </c>
+      <c r="G8" s="32">
+        <v>3326</v>
+      </c>
       <c r="H8" s="20">
         <f t="shared" si="0"/>
-        <v>3326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14">
+        <v>45083</v>
+      </c>
       <c r="B9" s="15">
         <f t="shared" si="1"/>
         <v>1428</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="22">
+        <v>218</v>
+      </c>
+      <c r="F9" s="23">
+        <v>45084</v>
+      </c>
+      <c r="G9" s="32">
+        <v>218</v>
+      </c>
       <c r="H9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="14">
+        <v>45083</v>
+      </c>
       <c r="B10" s="15">
         <f t="shared" si="1"/>
         <v>1429</v>
       </c>
       <c r="C10" s="16"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="22">
+        <v>13770</v>
+      </c>
+      <c r="F10" s="23">
+        <v>45083</v>
+      </c>
+      <c r="G10" s="32">
+        <v>13770</v>
+      </c>
       <c r="H10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>45083</v>
+      </c>
       <c r="B11" s="15">
         <f t="shared" si="1"/>
         <v>1430</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="32"/>
+      <c r="D11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="22">
+        <v>3072</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="32">
+        <f>2000+1072</f>
+        <v>3072</v>
+      </c>
       <c r="H11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14">
+        <v>45083</v>
+      </c>
       <c r="B12" s="15">
         <f t="shared" si="1"/>
         <v>1431</v>
       </c>
       <c r="C12" s="26"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="32"/>
+      <c r="D12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="22">
+        <v>4488</v>
+      </c>
+      <c r="F12" s="23">
+        <v>45085</v>
+      </c>
+      <c r="G12" s="32">
+        <v>4488</v>
+      </c>
       <c r="H12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14">
+        <v>45083</v>
+      </c>
       <c r="B13" s="15">
         <f t="shared" si="1"/>
         <v>1432</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="22">
+        <v>4803</v>
+      </c>
+      <c r="F13" s="23">
+        <v>45085</v>
+      </c>
+      <c r="G13" s="32">
+        <v>4803</v>
+      </c>
       <c r="H13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>45085</v>
+      </c>
       <c r="B14" s="15">
         <f t="shared" si="1"/>
         <v>1433</v>
       </c>
       <c r="C14" s="26"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3213</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="32">
+        <f>1213+2000</f>
+        <v>3213</v>
+      </c>
       <c r="H14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>45085</v>
+      </c>
       <c r="B15" s="15">
         <f t="shared" si="1"/>
         <v>1434</v>
       </c>
       <c r="C15" s="27"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="22">
+        <v>14730</v>
+      </c>
+      <c r="F15" s="23">
+        <v>45085</v>
+      </c>
+      <c r="G15" s="32">
+        <v>14730</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>45085</v>
+      </c>
       <c r="B16" s="15">
         <f t="shared" si="1"/>
         <v>1435</v>
       </c>
       <c r="C16" s="26"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="22">
+        <v>2940</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="32">
+        <f>2500+440</f>
+        <v>2940</v>
+      </c>
       <c r="H16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14">
+        <v>45085</v>
+      </c>
       <c r="B17" s="15">
         <f t="shared" si="1"/>
         <v>1436</v>
       </c>
       <c r="C17" s="27"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="22">
+        <v>3344</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="32">
+        <v>3344</v>
+      </c>
       <c r="H17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14">
+        <v>45085</v>
+      </c>
       <c r="B18" s="15">
         <f t="shared" si="1"/>
         <v>1437</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="22">
+        <v>8008</v>
+      </c>
+      <c r="F18" s="23">
+        <v>45086</v>
+      </c>
+      <c r="G18" s="32">
+        <v>8008</v>
+      </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14">
+        <v>45086</v>
+      </c>
       <c r="B19" s="15">
         <f t="shared" si="1"/>
         <v>1438</v>
       </c>
       <c r="C19" s="27"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="32"/>
+      <c r="D19" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="22">
+        <v>12288</v>
+      </c>
+      <c r="F19" s="23">
+        <v>45086</v>
+      </c>
+      <c r="G19" s="32">
+        <v>12288</v>
+      </c>
       <c r="H19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14">
+        <v>45086</v>
+      </c>
       <c r="B20" s="15">
         <f t="shared" si="1"/>
         <v>1439</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="32"/>
+      <c r="D20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="22">
+        <v>3284</v>
+      </c>
+      <c r="F20" s="23">
+        <v>45087</v>
+      </c>
+      <c r="G20" s="32">
+        <v>3284</v>
+      </c>
       <c r="H20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>45086</v>
+      </c>
       <c r="B21" s="15">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="32"/>
+      <c r="D21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="22">
+        <v>3283</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="32">
+        <f>2200+1083</f>
+        <v>3283</v>
+      </c>
       <c r="H21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14">
+        <v>45086</v>
+      </c>
       <c r="B22" s="15">
         <f t="shared" si="1"/>
         <v>1441</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="22">
+        <v>10390</v>
+      </c>
       <c r="F22" s="23"/>
       <c r="G22" s="32"/>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14">
+        <v>45086</v>
+      </c>
       <c r="B23" s="15">
         <f t="shared" si="1"/>
         <v>1442</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
+      <c r="D23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="22">
+        <v>10400</v>
+      </c>
       <c r="F23" s="23"/>
       <c r="G23" s="32"/>
       <c r="H23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>45086</v>
+      </c>
       <c r="B24" s="15">
         <f t="shared" si="1"/>
         <v>1443</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="32"/>
+      <c r="D24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="22">
+        <v>8109</v>
+      </c>
+      <c r="F24" s="23">
+        <v>45087</v>
+      </c>
+      <c r="G24" s="32">
+        <v>8109</v>
+      </c>
       <c r="H24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14">
+        <v>45087</v>
+      </c>
       <c r="B25" s="15">
         <f t="shared" si="1"/>
         <v>1444</v>
       </c>
       <c r="C25" s="26"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="22">
+        <v>201</v>
+      </c>
       <c r="F25" s="23"/>
       <c r="G25" s="32"/>
       <c r="H25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>45087</v>
+      </c>
       <c r="B26" s="15">
         <f t="shared" si="1"/>
         <v>1445</v>
       </c>
       <c r="C26" s="26"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="32"/>
+      <c r="D26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="22">
+        <v>3860</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="32">
+        <f>2060+1800</f>
+        <v>3860</v>
+      </c>
       <c r="H26" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>45087</v>
+      </c>
       <c r="B27" s="15">
         <f t="shared" si="1"/>
         <v>1446</v>
       </c>
       <c r="C27" s="26"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="32"/>
+      <c r="D27" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="22">
+        <v>3683</v>
+      </c>
+      <c r="F27" s="23">
+        <v>45088</v>
+      </c>
+      <c r="G27" s="32">
+        <v>3683</v>
+      </c>
       <c r="H27" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14">
+        <v>45087</v>
+      </c>
       <c r="B28" s="15">
         <f t="shared" si="1"/>
         <v>1447</v>
       </c>
       <c r="C28" s="26"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="32"/>
+      <c r="D28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="22">
+        <v>437</v>
+      </c>
+      <c r="F28" s="23">
+        <v>45088</v>
+      </c>
+      <c r="G28" s="32">
+        <v>437</v>
+      </c>
       <c r="H28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
+      <c r="A29" s="69">
+        <v>45087</v>
+      </c>
       <c r="B29" s="70">
         <f t="shared" si="1"/>
         <v>1448</v>
       </c>
       <c r="C29" s="71"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="22">
+        <v>9356</v>
+      </c>
+      <c r="F29" s="23">
+        <v>45087</v>
+      </c>
+      <c r="G29" s="32">
+        <v>9356</v>
+      </c>
       <c r="H29" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
+    <row r="30" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
+        <v>45087</v>
+      </c>
       <c r="B30" s="70">
         <f t="shared" si="1"/>
         <v>1449</v>
       </c>
       <c r="C30" s="71"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="32"/>
+      <c r="D30" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="22">
+        <v>3526</v>
+      </c>
+      <c r="F30" s="23">
+        <v>45087</v>
+      </c>
+      <c r="G30" s="32">
+        <v>3526</v>
+      </c>
       <c r="H30" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
+      <c r="A31" s="69">
+        <v>45087</v>
+      </c>
       <c r="B31" s="70">
         <f t="shared" si="1"/>
         <v>1450</v>
       </c>
       <c r="C31" s="71"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="32"/>
+      <c r="D31" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="22">
+        <v>3859</v>
+      </c>
+      <c r="F31" s="23">
+        <v>45087</v>
+      </c>
+      <c r="G31" s="32">
+        <v>3859</v>
+      </c>
       <c r="H31" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="69"/>
+    <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69">
+        <v>45087</v>
+      </c>
       <c r="B32" s="70">
         <f t="shared" si="1"/>
         <v>1451</v>
       </c>
       <c r="C32" s="71"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="32"/>
+      <c r="D32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="22">
+        <v>2780</v>
+      </c>
+      <c r="F32" s="23">
+        <v>45088</v>
+      </c>
+      <c r="G32" s="32">
+        <v>2780</v>
+      </c>
       <c r="H32" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
+      <c r="A33" s="69">
+        <v>45088</v>
+      </c>
       <c r="B33" s="70">
         <f t="shared" si="1"/>
         <v>1452</v>
       </c>
       <c r="C33" s="71"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="32"/>
+      <c r="D33" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="22">
+        <v>15060</v>
+      </c>
+      <c r="F33" s="23">
+        <v>45088</v>
+      </c>
+      <c r="G33" s="32">
+        <v>15060</v>
+      </c>
       <c r="H33" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="69">
+        <v>45088</v>
+      </c>
       <c r="B34" s="70">
         <f t="shared" si="1"/>
         <v>1453</v>
       </c>
       <c r="C34" s="71"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="22">
+        <v>2276</v>
+      </c>
       <c r="F34" s="23"/>
       <c r="G34" s="32"/>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
+      <c r="A35" s="69">
+        <v>45088</v>
+      </c>
       <c r="B35" s="70">
         <f t="shared" si="1"/>
         <v>1454</v>
       </c>
       <c r="C35" s="71"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2788</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="G35" s="32"/>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15971,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="69"/>
       <c r="B37" s="70">
         <f t="shared" si="1"/>
@@ -17360,16 +17660,16 @@
       <c r="D124" s="3"/>
       <c r="E124" s="46">
         <f>SUM(E4:E123)</f>
-        <v>28432</v>
+        <v>182598</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="47">
         <f>SUM(G4:G123)</f>
-        <v>19710</v>
+        <v>156543</v>
       </c>
       <c r="H124" s="48">
         <f>SUM(H4:H123)</f>
-        <v>8722</v>
+        <v>26055</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -17413,7 +17713,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="87">
         <f>E124-G124</f>
-        <v>8722</v>
+        <v>26055</v>
       </c>
       <c r="F128" s="88"/>
       <c r="G128" s="89"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="131">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t>10-Jun-23--11-Jun-23</t>
+  </si>
+  <si>
+    <t>12-Jun-23--13-Jun-23</t>
+  </si>
+  <si>
+    <t>13-Jun-23--15-Jun-23</t>
+  </si>
+  <si>
+    <t>15-Jun-23--16-Jun-23</t>
+  </si>
+  <si>
+    <t>16-Jun-23--</t>
   </si>
 </sst>
 </file>
@@ -15369,8 +15381,8 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D49:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15947,11 +15959,15 @@
       <c r="E23" s="22">
         <v>10400</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="32"/>
+      <c r="F23" s="23">
+        <v>45090</v>
+      </c>
+      <c r="G23" s="32">
+        <v>10400</v>
+      </c>
       <c r="H23" s="20">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15995,11 +16011,15 @@
       <c r="E25" s="22">
         <v>201</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="23">
+        <v>45090</v>
+      </c>
+      <c r="G25" s="32">
+        <v>201</v>
+      </c>
       <c r="H25" s="20">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
@@ -16211,7 +16231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="69">
         <v>45088</v>
       </c>
@@ -16226,11 +16246,16 @@
       <c r="E34" s="22">
         <v>2276</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="32"/>
+      <c r="F34" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="32">
+        <f>1600+676</f>
+        <v>2276</v>
+      </c>
       <c r="H34" s="20">
         <f t="shared" si="0"/>
-        <v>2276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16248,296 +16273,467 @@
       <c r="E35" s="22">
         <v>2788</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="32"/>
+      <c r="F35" s="23">
+        <v>45089</v>
+      </c>
+      <c r="G35" s="32">
+        <v>2788</v>
+      </c>
       <c r="H35" s="20">
         <f t="shared" si="0"/>
-        <v>2788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="69">
+        <v>45089</v>
+      </c>
       <c r="B36" s="70">
         <f t="shared" si="1"/>
         <v>1455</v>
       </c>
       <c r="C36" s="71"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="22">
+        <v>14934</v>
+      </c>
+      <c r="F36" s="23">
+        <v>45089</v>
+      </c>
+      <c r="G36" s="32">
+        <v>14934</v>
+      </c>
       <c r="H36" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="A37" s="69">
+        <v>45089</v>
+      </c>
       <c r="B37" s="70">
         <f t="shared" si="1"/>
         <v>1456</v>
       </c>
       <c r="C37" s="71"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="32"/>
+      <c r="D37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="22">
+        <v>4378</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="32">
+        <f>3500+878</f>
+        <v>4378</v>
+      </c>
       <c r="H37" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="69">
+        <v>45089</v>
+      </c>
       <c r="B38" s="70">
         <f t="shared" si="1"/>
         <v>1457</v>
       </c>
       <c r="C38" s="71"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="32"/>
+      <c r="D38" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="22">
+        <v>7166</v>
+      </c>
+      <c r="F38" s="23">
+        <v>45090</v>
+      </c>
+      <c r="G38" s="32">
+        <v>7166</v>
+      </c>
       <c r="H38" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+      <c r="A39" s="69">
+        <v>45089</v>
+      </c>
       <c r="B39" s="70">
         <f t="shared" si="1"/>
         <v>1458</v>
       </c>
       <c r="C39" s="71"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="32"/>
+      <c r="D39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="22">
+        <v>4403</v>
+      </c>
+      <c r="F39" s="23">
+        <v>45090</v>
+      </c>
+      <c r="G39" s="32">
+        <v>4403</v>
+      </c>
       <c r="H39" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+    <row r="40" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="69">
+        <v>45090</v>
+      </c>
       <c r="B40" s="70">
         <f t="shared" si="1"/>
         <v>1459</v>
       </c>
       <c r="C40" s="71"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="32"/>
+      <c r="D40" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="22">
+        <v>2892</v>
+      </c>
+      <c r="F40" s="23">
+        <v>45090</v>
+      </c>
+      <c r="G40" s="32">
+        <v>2892</v>
+      </c>
       <c r="H40" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="69">
+        <v>45090</v>
+      </c>
       <c r="B41" s="70">
         <f t="shared" si="1"/>
         <v>1460</v>
       </c>
       <c r="C41" s="71"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="32"/>
+      <c r="D41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="22">
+        <v>4330</v>
+      </c>
+      <c r="F41" s="23">
+        <v>45091</v>
+      </c>
+      <c r="G41" s="32">
+        <v>4330</v>
+      </c>
       <c r="H41" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
+      <c r="A42" s="69">
+        <v>45090</v>
+      </c>
       <c r="B42" s="70">
         <f t="shared" si="1"/>
         <v>1461</v>
       </c>
       <c r="C42" s="71"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="32"/>
+      <c r="D42" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="22">
+        <v>3781</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="32">
+        <f>2000+1781</f>
+        <v>3781</v>
+      </c>
       <c r="H42" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="69">
+        <v>45090</v>
+      </c>
       <c r="B43" s="70">
         <f t="shared" si="1"/>
         <v>1462</v>
       </c>
       <c r="C43" s="71"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
+      <c r="D43" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="22">
+        <v>10400</v>
+      </c>
       <c r="F43" s="23"/>
       <c r="G43" s="32"/>
       <c r="H43" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="69">
+        <v>45090</v>
+      </c>
       <c r="B44" s="70">
         <f t="shared" si="1"/>
         <v>1463</v>
       </c>
       <c r="C44" s="71"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="22">
+        <v>7898</v>
+      </c>
+      <c r="F44" s="23">
+        <v>45091</v>
+      </c>
+      <c r="G44" s="32">
+        <v>7898</v>
+      </c>
       <c r="H44" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
+      <c r="A45" s="69">
+        <v>45091</v>
+      </c>
       <c r="B45" s="70">
         <f t="shared" si="1"/>
         <v>1464</v>
       </c>
       <c r="C45" s="71"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="22">
+        <v>15033</v>
+      </c>
+      <c r="F45" s="23">
+        <v>45091</v>
+      </c>
+      <c r="G45" s="32">
+        <v>15033</v>
+      </c>
       <c r="H45" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
+      <c r="A46" s="69">
+        <v>45091</v>
+      </c>
       <c r="B46" s="70">
         <f t="shared" si="1"/>
         <v>1465</v>
       </c>
       <c r="C46" s="71"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="32"/>
+      <c r="D46" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="22">
+        <v>4462</v>
+      </c>
+      <c r="F46" s="23">
+        <v>45092</v>
+      </c>
+      <c r="G46" s="32">
+        <v>4462</v>
+      </c>
       <c r="H46" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
+      <c r="A47" s="69">
+        <v>45092</v>
+      </c>
       <c r="B47" s="70">
         <f t="shared" si="1"/>
         <v>1466</v>
       </c>
       <c r="C47" s="71"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="22">
+        <v>12216</v>
+      </c>
+      <c r="F47" s="23">
+        <v>45092</v>
+      </c>
+      <c r="G47" s="32">
+        <v>12216</v>
+      </c>
       <c r="H47" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
+      <c r="A48" s="69">
+        <v>45092</v>
+      </c>
       <c r="B48" s="70">
         <f t="shared" si="1"/>
         <v>1467</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="32"/>
+      <c r="D48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="22">
+        <v>3437</v>
+      </c>
+      <c r="F48" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="75">
+        <f>2400</f>
+        <v>2400</v>
+      </c>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
+      <c r="A49" s="69">
+        <v>45093</v>
+      </c>
       <c r="B49" s="70">
         <f t="shared" si="1"/>
         <v>1468</v>
       </c>
       <c r="C49" s="71"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
+      <c r="D49" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="22">
+        <v>3427</v>
+      </c>
       <c r="F49" s="23"/>
       <c r="G49" s="32"/>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
+      <c r="A50" s="69">
+        <v>45093</v>
+      </c>
       <c r="B50" s="70">
         <f t="shared" si="1"/>
         <v>1469</v>
       </c>
       <c r="C50" s="71"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
+      <c r="D50" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="22">
+        <v>11190</v>
+      </c>
       <c r="F50" s="23"/>
       <c r="G50" s="32"/>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11190</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
+      <c r="A51" s="69">
+        <v>45093</v>
+      </c>
       <c r="B51" s="70">
         <f t="shared" si="1"/>
         <v>1470</v>
       </c>
       <c r="C51" s="71"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
+      <c r="D51" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="22">
+        <v>12100</v>
+      </c>
       <c r="F51" s="23"/>
       <c r="G51" s="32"/>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="69">
+        <v>45093</v>
+      </c>
       <c r="B52" s="70">
         <f t="shared" si="1"/>
         <v>1471</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="32"/>
+      <c r="D52" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="22">
+        <v>15894</v>
+      </c>
+      <c r="F52" s="23">
+        <v>45093</v>
+      </c>
+      <c r="G52" s="32">
+        <v>15894</v>
+      </c>
       <c r="H52" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
+      <c r="A53" s="69">
+        <v>45093</v>
+      </c>
       <c r="B53" s="70">
         <f t="shared" si="1"/>
         <v>1472</v>
       </c>
       <c r="C53" s="71"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="32"/>
+      <c r="D53" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="22">
+        <v>7930</v>
+      </c>
+      <c r="F53" s="23">
+        <v>45093</v>
+      </c>
+      <c r="G53" s="32">
+        <v>7930</v>
+      </c>
       <c r="H53" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17660,16 +17856,16 @@
       <c r="D124" s="3"/>
       <c r="E124" s="46">
         <f>SUM(E4:E123)</f>
-        <v>182598</v>
+        <v>328469</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="47">
         <f>SUM(G4:G123)</f>
-        <v>156543</v>
+        <v>279925</v>
       </c>
       <c r="H124" s="48">
         <f>SUM(H4:H123)</f>
-        <v>26055</v>
+        <v>48544</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -17713,7 +17909,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="87">
         <f>E124-G124</f>
-        <v>26055</v>
+        <v>48544</v>
       </c>
       <c r="F128" s="88"/>
       <c r="G128" s="89"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="135">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -422,7 +422,19 @@
     <t>15-Jun-23--16-Jun-23</t>
   </si>
   <si>
-    <t>16-Jun-23--</t>
+    <t>16-Jun-23--17-Jun-23</t>
+  </si>
+  <si>
+    <t>17-Jun-23--18-Jun-23</t>
+  </si>
+  <si>
+    <t>18-Jun-23--20-Jun-23</t>
+  </si>
+  <si>
+    <t>20-Jun-23--</t>
+  </si>
+  <si>
+    <t>22-Jun-23--</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +586,14 @@
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -799,7 +819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1001,6 +1021,7 @@
     <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2007,25 +2028,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -4048,12 +4069,12 @@
       <c r="B84" s="44"/>
       <c r="C84" s="45"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="87">
+      <c r="E84" s="88">
         <f>E80-G80</f>
         <v>0</v>
       </c>
-      <c r="F84" s="88"/>
-      <c r="G84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="90"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4069,11 +4090,11 @@
       <c r="B86" s="44"/>
       <c r="C86" s="45"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="90" t="s">
+      <c r="E86" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="91"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4216,25 +4237,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -6656,12 +6677,12 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="87">
+      <c r="E98" s="88">
         <f>E94-G94</f>
         <v>0</v>
       </c>
-      <c r="F98" s="88"/>
-      <c r="G98" s="89"/>
+      <c r="F98" s="89"/>
+      <c r="G98" s="90"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6677,11 +6698,11 @@
       <c r="B100" s="44"/>
       <c r="C100" s="45"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="90" t="s">
+      <c r="E100" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="90"/>
-      <c r="G100" s="90"/>
+      <c r="F100" s="91"/>
+      <c r="G100" s="91"/>
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6827,25 +6848,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -9386,12 +9407,12 @@
       <c r="B102" s="44"/>
       <c r="C102" s="45"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="87">
+      <c r="E102" s="88">
         <f>E98-G98</f>
         <v>0</v>
       </c>
-      <c r="F102" s="88"/>
-      <c r="G102" s="89"/>
+      <c r="F102" s="89"/>
+      <c r="G102" s="90"/>
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -9407,11 +9428,11 @@
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="90" t="s">
+      <c r="E104" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
+      <c r="F104" s="91"/>
+      <c r="G104" s="91"/>
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -9557,25 +9578,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -11896,12 +11917,12 @@
       <c r="B96" s="44"/>
       <c r="C96" s="45"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="87">
+      <c r="E96" s="88">
         <f>E92-G92</f>
         <v>0</v>
       </c>
-      <c r="F96" s="88"/>
-      <c r="G96" s="89"/>
+      <c r="F96" s="89"/>
+      <c r="G96" s="90"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -11917,11 +11938,11 @@
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="90" t="s">
+      <c r="E98" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="90"/>
-      <c r="G98" s="90"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -12065,25 +12086,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -15233,12 +15254,12 @@
       <c r="B128" s="44"/>
       <c r="C128" s="45"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="87">
+      <c r="E128" s="88">
         <f>E124-G124</f>
         <v>0</v>
       </c>
-      <c r="F128" s="88"/>
-      <c r="G128" s="89"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="90"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -15254,11 +15275,11 @@
       <c r="B130" s="44"/>
       <c r="C130" s="45"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="90" t="s">
+      <c r="E130" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="90"/>
-      <c r="G130" s="90"/>
+      <c r="F130" s="91"/>
+      <c r="G130" s="91"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -15381,8 +15402,8 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D49:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15401,25 +15422,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
+      <c r="B2" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
       <c r="G2" s="61"/>
       <c r="H2" s="5"/>
       <c r="I2" s="3"/>
@@ -15937,11 +15958,15 @@
       <c r="E22" s="22">
         <v>10390</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="32"/>
+      <c r="F22" s="23">
+        <v>45097</v>
+      </c>
+      <c r="G22" s="32">
+        <v>10390</v>
+      </c>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16594,7 +16619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="69">
         <v>45092</v>
       </c>
@@ -16609,19 +16634,19 @@
       <c r="E48" s="22">
         <v>3437</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="75">
-        <f>2400</f>
-        <v>2400</v>
+      <c r="G48" s="32">
+        <f>2400+1037</f>
+        <v>3437</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" si="0"/>
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="69">
         <v>45093</v>
       </c>
@@ -16636,11 +16661,16 @@
       <c r="E49" s="22">
         <v>3427</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="32"/>
+      <c r="F49" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="32">
+        <f>3200+227</f>
+        <v>3427</v>
+      </c>
       <c r="H49" s="20">
         <f t="shared" si="0"/>
-        <v>3427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16680,11 +16710,15 @@
       <c r="E51" s="22">
         <v>12100</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="32"/>
+      <c r="F51" s="23">
+        <v>45096</v>
+      </c>
+      <c r="G51" s="32">
+        <v>12100</v>
+      </c>
       <c r="H51" s="20">
         <f t="shared" si="0"/>
-        <v>12100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16739,372 +16773,595 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
+    <row r="54" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="69">
+        <v>45094</v>
+      </c>
       <c r="B54" s="70">
         <f t="shared" si="1"/>
         <v>1473</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="32"/>
+      <c r="D54" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="22">
+        <v>3421</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="32">
+        <f>2421+1000</f>
+        <v>3421</v>
+      </c>
       <c r="H54" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
+    <row r="55" spans="1:8" s="34" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72">
+        <v>45094</v>
+      </c>
       <c r="B55" s="70">
         <f t="shared" si="1"/>
         <v>1474</v>
       </c>
       <c r="C55" s="71"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="32"/>
+      <c r="D55" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="31">
+        <v>3091</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="32">
+        <f>1400+1691</f>
+        <v>3091</v>
+      </c>
       <c r="H55" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
+      <c r="A56" s="69">
+        <v>45094</v>
+      </c>
       <c r="B56" s="70">
         <f t="shared" si="1"/>
         <v>1475</v>
       </c>
       <c r="C56" s="71"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="32"/>
+      <c r="D56" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="22">
+        <v>430</v>
+      </c>
+      <c r="F56" s="23">
+        <v>45095</v>
+      </c>
+      <c r="G56" s="32">
+        <v>430</v>
+      </c>
       <c r="H56" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
+      <c r="A57" s="69">
+        <v>45094</v>
+      </c>
       <c r="B57" s="70">
         <f t="shared" si="1"/>
         <v>1476</v>
       </c>
       <c r="C57" s="71"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="32"/>
+      <c r="D57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="22">
+        <v>4294</v>
+      </c>
+      <c r="F57" s="23">
+        <v>45095</v>
+      </c>
+      <c r="G57" s="32">
+        <v>4294</v>
+      </c>
       <c r="H57" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
+    <row r="58" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="69">
+        <v>45095</v>
+      </c>
       <c r="B58" s="70">
         <f t="shared" si="1"/>
         <v>1477</v>
       </c>
       <c r="C58" s="71"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="32"/>
+      <c r="D58" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="22">
+        <v>1872</v>
+      </c>
+      <c r="F58" s="23">
+        <v>45097</v>
+      </c>
+      <c r="G58" s="32">
+        <v>1872</v>
+      </c>
       <c r="H58" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
+      <c r="A59" s="69">
+        <v>45095</v>
+      </c>
       <c r="B59" s="70">
         <f t="shared" si="1"/>
         <v>1478</v>
       </c>
       <c r="C59" s="71"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="32"/>
+      <c r="D59" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="22">
+        <v>9727</v>
+      </c>
+      <c r="F59" s="23">
+        <v>45096</v>
+      </c>
+      <c r="G59" s="32">
+        <v>9727</v>
+      </c>
       <c r="H59" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
+      <c r="A60" s="69">
+        <v>45095</v>
+      </c>
       <c r="B60" s="70">
         <f t="shared" si="1"/>
         <v>1479</v>
       </c>
       <c r="C60" s="71"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="32"/>
+      <c r="D60" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="22">
+        <v>5022</v>
+      </c>
+      <c r="F60" s="23">
+        <v>45096</v>
+      </c>
+      <c r="G60" s="32">
+        <v>5022</v>
+      </c>
       <c r="H60" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
+      <c r="A61" s="69">
+        <v>45096</v>
+      </c>
       <c r="B61" s="70">
         <f t="shared" si="1"/>
         <v>1480</v>
       </c>
       <c r="C61" s="71"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="32"/>
+      <c r="D61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="22">
+        <v>261</v>
+      </c>
+      <c r="F61" s="23">
+        <v>45099</v>
+      </c>
+      <c r="G61" s="32">
+        <v>261</v>
+      </c>
       <c r="H61" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
+      <c r="A62" s="69">
+        <v>45096</v>
+      </c>
       <c r="B62" s="70">
         <f t="shared" si="1"/>
         <v>1481</v>
       </c>
       <c r="C62" s="71"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="32"/>
+      <c r="D62" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="22">
+        <v>13620</v>
+      </c>
+      <c r="F62" s="23">
+        <v>45096</v>
+      </c>
+      <c r="G62" s="32">
+        <v>13620</v>
+      </c>
       <c r="H62" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
+      <c r="A63" s="69">
+        <v>45096</v>
+      </c>
       <c r="B63" s="70">
         <f t="shared" si="1"/>
         <v>1482</v>
       </c>
       <c r="C63" s="71"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="32"/>
+      <c r="D63" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="22">
+        <v>2320</v>
+      </c>
+      <c r="F63" s="23">
+        <v>45097</v>
+      </c>
+      <c r="G63" s="32">
+        <v>2320</v>
+      </c>
       <c r="H63" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="A64" s="69">
+        <v>45096</v>
+      </c>
       <c r="B64" s="70">
         <f t="shared" si="1"/>
         <v>1483</v>
       </c>
       <c r="C64" s="71"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="32"/>
+      <c r="D64" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="22">
+        <v>502</v>
+      </c>
+      <c r="F64" s="23">
+        <v>45097</v>
+      </c>
+      <c r="G64" s="32">
+        <v>502</v>
+      </c>
       <c r="H64" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="73"/>
+      <c r="A65" s="73">
+        <v>45096</v>
+      </c>
       <c r="B65" s="70">
         <f t="shared" si="1"/>
         <v>1484</v>
       </c>
       <c r="C65" s="71"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="32"/>
+      <c r="D65" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="22">
+        <v>7594</v>
+      </c>
+      <c r="F65" s="23">
+        <v>45097</v>
+      </c>
+      <c r="G65" s="32">
+        <v>7594</v>
+      </c>
       <c r="H65" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="73"/>
+      <c r="A66" s="73">
+        <v>45097</v>
+      </c>
       <c r="B66" s="70">
         <f t="shared" si="1"/>
         <v>1485</v>
       </c>
       <c r="C66" s="71"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="32"/>
+      <c r="D66" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="22">
+        <v>5600</v>
+      </c>
+      <c r="F66" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="75">
+        <f>1800</f>
+        <v>1800</v>
+      </c>
       <c r="H66" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="73"/>
+      <c r="A67" s="73">
+        <v>45097</v>
+      </c>
       <c r="B67" s="70">
         <f t="shared" si="1"/>
         <v>1486</v>
       </c>
       <c r="C67" s="71"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="32"/>
+      <c r="D67" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="22">
+        <v>10584</v>
+      </c>
+      <c r="F67" s="23">
+        <v>45099</v>
+      </c>
+      <c r="G67" s="32">
+        <v>10584</v>
+      </c>
       <c r="H67" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="73"/>
+      <c r="A68" s="73">
+        <v>45097</v>
+      </c>
       <c r="B68" s="70">
         <f t="shared" si="1"/>
         <v>1487</v>
       </c>
       <c r="C68" s="71"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="32"/>
+      <c r="D68" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="22">
+        <v>496</v>
+      </c>
+      <c r="F68" s="23">
+        <v>45099</v>
+      </c>
+      <c r="G68" s="32">
+        <v>496</v>
+      </c>
       <c r="H68" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="73"/>
+      <c r="A69" s="73">
+        <v>45097</v>
+      </c>
       <c r="B69" s="70">
         <f t="shared" si="1"/>
         <v>1488</v>
       </c>
       <c r="C69" s="71"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="32"/>
+      <c r="D69" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="22">
+        <v>3464</v>
+      </c>
+      <c r="F69" s="23">
+        <v>45099</v>
+      </c>
+      <c r="G69" s="32">
+        <v>3464</v>
+      </c>
       <c r="H69" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="73"/>
+      <c r="A70" s="73">
+        <v>45097</v>
+      </c>
       <c r="B70" s="70">
         <f t="shared" ref="B70:B120" si="2">B69+1</f>
         <v>1489</v>
       </c>
       <c r="C70" s="71"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="32"/>
+      <c r="D70" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="22">
+        <v>4029</v>
+      </c>
+      <c r="F70" s="23">
+        <v>45099</v>
+      </c>
+      <c r="G70" s="32">
+        <v>4029</v>
+      </c>
       <c r="H70" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="73"/>
+    <row r="71" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="73">
+        <v>45098</v>
+      </c>
       <c r="B71" s="70">
         <f t="shared" si="2"/>
         <v>1490</v>
       </c>
       <c r="C71" s="71"/>
-      <c r="D71" s="82"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="32"/>
+      <c r="D71" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="22">
+        <v>5176</v>
+      </c>
+      <c r="F71" s="23">
+        <v>45099</v>
+      </c>
+      <c r="G71" s="32">
+        <v>5176</v>
+      </c>
       <c r="H71" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="73"/>
+    <row r="72" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="73">
+        <v>45099</v>
+      </c>
       <c r="B72" s="70">
         <f t="shared" si="2"/>
         <v>1491</v>
       </c>
       <c r="C72" s="71"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="22"/>
+      <c r="D72" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="22">
+        <v>354</v>
+      </c>
       <c r="F72" s="23"/>
       <c r="G72" s="32"/>
       <c r="H72" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="73"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="73">
+        <v>45099</v>
+      </c>
       <c r="B73" s="70">
         <f t="shared" si="2"/>
         <v>1492</v>
       </c>
       <c r="C73" s="71"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="32"/>
+      <c r="D73" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="22">
+        <v>4421</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" s="32">
+        <f>1975</f>
+        <v>1975</v>
+      </c>
       <c r="H73" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="73"/>
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="73">
+        <v>45099</v>
+      </c>
       <c r="B74" s="70">
         <f t="shared" si="2"/>
         <v>1493</v>
       </c>
       <c r="C74" s="71"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="32"/>
+      <c r="D74" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" s="22">
+        <v>11446</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" s="32">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
       <c r="H74" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="73"/>
+      <c r="A75" s="73">
+        <v>45099</v>
+      </c>
       <c r="B75" s="70">
         <f t="shared" si="2"/>
         <v>1494</v>
       </c>
       <c r="C75" s="71"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="22"/>
+      <c r="D75" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="22">
+        <v>825</v>
+      </c>
       <c r="F75" s="23"/>
       <c r="G75" s="32"/>
       <c r="H75" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="73"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="73">
+        <v>45099</v>
+      </c>
       <c r="B76" s="70">
         <f t="shared" si="2"/>
         <v>1495</v>
       </c>
       <c r="C76" s="71"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="22"/>
+      <c r="D76" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="22">
+        <v>13385</v>
+      </c>
       <c r="F76" s="23"/>
       <c r="G76" s="32"/>
       <c r="H76" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13385</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17114,7 +17371,7 @@
         <v>1496</v>
       </c>
       <c r="C77" s="71"/>
-      <c r="D77" s="35"/>
+      <c r="D77" s="21"/>
       <c r="E77" s="22"/>
       <c r="F77" s="23"/>
       <c r="G77" s="32"/>
@@ -17130,7 +17387,7 @@
         <v>1497</v>
       </c>
       <c r="C78" s="71"/>
-      <c r="D78" s="35"/>
+      <c r="D78" s="21"/>
       <c r="E78" s="22"/>
       <c r="F78" s="23"/>
       <c r="G78" s="32"/>
@@ -17146,7 +17403,7 @@
         <v>1498</v>
       </c>
       <c r="C79" s="71"/>
-      <c r="D79" s="35"/>
+      <c r="D79" s="21"/>
       <c r="E79" s="22"/>
       <c r="F79" s="23"/>
       <c r="G79" s="32"/>
@@ -17162,7 +17419,7 @@
         <v>1499</v>
       </c>
       <c r="C80" s="71"/>
-      <c r="D80" s="35"/>
+      <c r="D80" s="21"/>
       <c r="E80" s="22"/>
       <c r="F80" s="23"/>
       <c r="G80" s="32"/>
@@ -17178,7 +17435,7 @@
         <v>1500</v>
       </c>
       <c r="C81" s="71"/>
-      <c r="D81" s="35"/>
+      <c r="D81" s="21"/>
       <c r="E81" s="22"/>
       <c r="F81" s="23"/>
       <c r="G81" s="32"/>
@@ -17194,7 +17451,7 @@
         <v>1501</v>
       </c>
       <c r="C82" s="71"/>
-      <c r="D82" s="35"/>
+      <c r="D82" s="21"/>
       <c r="E82" s="22"/>
       <c r="F82" s="23"/>
       <c r="G82" s="32"/>
@@ -17210,7 +17467,7 @@
         <v>1502</v>
       </c>
       <c r="C83" s="71"/>
-      <c r="D83" s="35"/>
+      <c r="D83" s="21"/>
       <c r="E83" s="22"/>
       <c r="F83" s="23"/>
       <c r="G83" s="32"/>
@@ -17226,7 +17483,7 @@
         <v>1503</v>
       </c>
       <c r="C84" s="71"/>
-      <c r="D84" s="35"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="22"/>
       <c r="F84" s="23"/>
       <c r="G84" s="32"/>
@@ -17242,7 +17499,7 @@
         <v>1504</v>
       </c>
       <c r="C85" s="71"/>
-      <c r="D85" s="35"/>
+      <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="23"/>
       <c r="G85" s="32"/>
@@ -17258,7 +17515,7 @@
         <v>1505</v>
       </c>
       <c r="C86" s="71"/>
-      <c r="D86" s="35"/>
+      <c r="D86" s="21"/>
       <c r="E86" s="22"/>
       <c r="F86" s="23"/>
       <c r="G86" s="32"/>
@@ -17274,7 +17531,7 @@
         <v>1506</v>
       </c>
       <c r="C87" s="71"/>
-      <c r="D87" s="35"/>
+      <c r="D87" s="21"/>
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
       <c r="G87" s="32"/>
@@ -17290,7 +17547,7 @@
         <v>1507</v>
       </c>
       <c r="C88" s="71"/>
-      <c r="D88" s="35"/>
+      <c r="D88" s="21"/>
       <c r="E88" s="22"/>
       <c r="F88" s="23"/>
       <c r="G88" s="32"/>
@@ -17306,7 +17563,7 @@
         <v>1508</v>
       </c>
       <c r="C89" s="71"/>
-      <c r="D89" s="35"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="22"/>
       <c r="F89" s="23"/>
       <c r="G89" s="32"/>
@@ -17856,16 +18113,16 @@
       <c r="D124" s="3"/>
       <c r="E124" s="46">
         <f>SUM(E4:E123)</f>
-        <v>328469</v>
+        <v>440403</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="47">
         <f>SUM(G4:G123)</f>
-        <v>279925</v>
+        <v>391557</v>
       </c>
       <c r="H124" s="48">
         <f>SUM(H4:H123)</f>
-        <v>48544</v>
+        <v>48846</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -17907,12 +18164,12 @@
       <c r="B128" s="44"/>
       <c r="C128" s="45"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="87">
+      <c r="E128" s="88">
         <f>E124-G124</f>
-        <v>48544</v>
-      </c>
-      <c r="F128" s="88"/>
-      <c r="G128" s="89"/>
+        <v>48846</v>
+      </c>
+      <c r="F128" s="89"/>
+      <c r="G128" s="90"/>
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -17928,11 +18185,11 @@
       <c r="B130" s="44"/>
       <c r="C130" s="45"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="90" t="s">
+      <c r="E130" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="90"/>
-      <c r="G130" s="90"/>
+      <c r="F130" s="91"/>
+      <c r="G130" s="91"/>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -18043,7 +18300,8 @@
     <mergeCell ref="E130:G130"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="143">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -431,10 +431,34 @@
     <t>18-Jun-23--20-Jun-23</t>
   </si>
   <si>
-    <t>20-Jun-23--</t>
+    <t>22-Jun-23--23-Jun-23</t>
   </si>
   <si>
-    <t>22-Jun-23--</t>
+    <t>22-Jun-23--24-Jun-23</t>
+  </si>
+  <si>
+    <t>24-Jun-23--25-Jun-23</t>
+  </si>
+  <si>
+    <t>25-Jun-23--26-Jun-23</t>
+  </si>
+  <si>
+    <t>23-Jun-23--27-Jun-23</t>
+  </si>
+  <si>
+    <t>20-Jun-23--27-Jun-23</t>
+  </si>
+  <si>
+    <t>27-Jun-23--29-Jun-23</t>
+  </si>
+  <si>
+    <t>29-Jun-23--</t>
+  </si>
+  <si>
+    <t>29-Jun-23--30-Jun-23</t>
+  </si>
+  <si>
+    <t>30-Jun-23--</t>
   </si>
 </sst>
 </file>
@@ -15402,8 +15426,8 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16493,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="69">
         <v>45090</v>
       </c>
@@ -16508,11 +16532,16 @@
       <c r="E43" s="22">
         <v>10400</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="32">
+        <f>8600+1800</f>
+        <v>10400</v>
+      </c>
       <c r="H43" s="20">
         <f t="shared" si="0"/>
-        <v>10400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16688,11 +16717,15 @@
       <c r="E50" s="22">
         <v>11190</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="32"/>
+      <c r="F50" s="23">
+        <v>45102</v>
+      </c>
+      <c r="G50" s="32">
+        <v>11190</v>
+      </c>
       <c r="H50" s="20">
         <f t="shared" si="0"/>
-        <v>11190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17087,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="73">
         <v>45097</v>
       </c>
@@ -17102,16 +17135,16 @@
       <c r="E66" s="22">
         <v>5600</v>
       </c>
-      <c r="F66" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" s="75">
-        <f>1800</f>
-        <v>1800</v>
+      <c r="F66" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="32">
+        <f>1800+3800</f>
+        <v>5600</v>
       </c>
       <c r="H66" s="20">
         <f t="shared" si="0"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17259,14 +17292,18 @@
       <c r="E72" s="22">
         <v>354</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="32"/>
+      <c r="F72" s="23">
+        <v>45100</v>
+      </c>
+      <c r="G72" s="32">
+        <v>354</v>
+      </c>
       <c r="H72" s="20">
         <f t="shared" si="0"/>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="73">
         <v>45099</v>
       </c>
@@ -17285,15 +17322,15 @@
         <v>134</v>
       </c>
       <c r="G73" s="32">
-        <f>1975</f>
-        <v>1975</v>
+        <f>1975+2446</f>
+        <v>4421</v>
       </c>
       <c r="H73" s="20">
         <f t="shared" si="0"/>
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="73">
         <v>45099</v>
       </c>
@@ -17309,15 +17346,15 @@
         <v>11446</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G74" s="32">
-        <f>5000</f>
-        <v>5000</v>
+        <f>5000+6446</f>
+        <v>11446</v>
       </c>
       <c r="H74" s="20">
         <f t="shared" si="0"/>
-        <v>6446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17335,14 +17372,18 @@
       <c r="E75" s="22">
         <v>825</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="32"/>
+      <c r="F75" s="23">
+        <v>45101</v>
+      </c>
+      <c r="G75" s="32">
+        <v>825</v>
+      </c>
       <c r="H75" s="20">
         <f t="shared" si="0"/>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="73">
         <v>45099</v>
       </c>
@@ -17357,398 +17398,626 @@
       <c r="E76" s="22">
         <v>13385</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="32"/>
+      <c r="F76" s="23">
+        <v>45103</v>
+      </c>
+      <c r="G76" s="32">
+        <v>13385</v>
+      </c>
       <c r="H76" s="20">
         <f t="shared" si="0"/>
-        <v>13385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="73">
+        <v>45100</v>
+      </c>
       <c r="B77" s="70">
         <f t="shared" si="2"/>
         <v>1496</v>
       </c>
       <c r="C77" s="71"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="32"/>
+      <c r="D77" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="22">
+        <v>4826</v>
+      </c>
+      <c r="F77" s="23">
+        <v>45106</v>
+      </c>
+      <c r="G77" s="32">
+        <v>4826</v>
+      </c>
       <c r="H77" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73"/>
+    <row r="78" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="73">
+        <v>45100</v>
+      </c>
       <c r="B78" s="70">
         <f t="shared" si="2"/>
         <v>1497</v>
       </c>
       <c r="C78" s="71"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="32"/>
+      <c r="D78" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="22">
+        <v>3480</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="32">
+        <f>2400+1080</f>
+        <v>3480</v>
+      </c>
       <c r="H78" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="73"/>
+    <row r="79" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="73">
+        <v>45100</v>
+      </c>
       <c r="B79" s="70">
         <f t="shared" si="2"/>
         <v>1498</v>
       </c>
       <c r="C79" s="71"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="22"/>
+      <c r="D79" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="22">
+        <v>10290</v>
+      </c>
       <c r="F79" s="23"/>
       <c r="G79" s="32"/>
       <c r="H79" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73"/>
+        <v>10290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="73">
+        <v>45100</v>
+      </c>
       <c r="B80" s="70">
         <f t="shared" si="2"/>
         <v>1499</v>
       </c>
       <c r="C80" s="71"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="32"/>
+      <c r="D80" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="22">
+        <v>11062</v>
+      </c>
+      <c r="F80" s="23">
+        <v>45103</v>
+      </c>
+      <c r="G80" s="32">
+        <v>11062</v>
+      </c>
       <c r="H80" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="73"/>
+    <row r="81" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="73">
+        <v>45101</v>
+      </c>
       <c r="B81" s="70">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="C81" s="71"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="32"/>
+      <c r="D81" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="22">
+        <v>3036</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="32">
+        <f>2554+482</f>
+        <v>3036</v>
+      </c>
       <c r="H81" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="73"/>
+    <row r="82" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="73">
+        <v>45101</v>
+      </c>
       <c r="B82" s="70">
         <f t="shared" si="2"/>
         <v>1501</v>
       </c>
       <c r="C82" s="71"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="32"/>
+      <c r="D82" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="22">
+        <v>2902</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" s="32">
+        <f>2600+302</f>
+        <v>2902</v>
+      </c>
       <c r="H82" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="73"/>
+    <row r="83" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="73">
+        <v>45101</v>
+      </c>
       <c r="B83" s="70">
         <f t="shared" si="2"/>
         <v>1502</v>
       </c>
       <c r="C83" s="71"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="32"/>
+      <c r="D83" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="22">
+        <v>6824</v>
+      </c>
+      <c r="F83" s="23">
+        <v>45103</v>
+      </c>
+      <c r="G83" s="32">
+        <v>6824</v>
+      </c>
       <c r="H83" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="73"/>
+    <row r="84" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="73">
+        <v>45101</v>
+      </c>
       <c r="B84" s="70">
         <f t="shared" si="2"/>
         <v>1503</v>
       </c>
       <c r="C84" s="71"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="32"/>
+      <c r="D84" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E84" s="22">
+        <v>3016</v>
+      </c>
+      <c r="F84" s="23">
+        <v>45103</v>
+      </c>
+      <c r="G84" s="32">
+        <v>3016</v>
+      </c>
       <c r="H84" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="73"/>
+    <row r="85" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="73">
+        <v>45102</v>
+      </c>
       <c r="B85" s="70">
         <f t="shared" si="2"/>
         <v>1504</v>
       </c>
       <c r="C85" s="71"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="32"/>
+      <c r="D85" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="22">
+        <v>2258</v>
+      </c>
+      <c r="F85" s="23">
+        <v>45103</v>
+      </c>
+      <c r="G85" s="32">
+        <v>2258</v>
+      </c>
       <c r="H85" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="73"/>
+    <row r="86" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="73">
+        <v>45103</v>
+      </c>
       <c r="B86" s="70">
         <f t="shared" si="2"/>
         <v>1505</v>
       </c>
       <c r="C86" s="71"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="32"/>
+      <c r="D86" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="22">
+        <v>2391</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" s="32">
+        <f>1000+1391</f>
+        <v>2391</v>
+      </c>
       <c r="H86" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="73"/>
+    <row r="87" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="73">
+        <v>45103</v>
+      </c>
       <c r="B87" s="70">
         <f t="shared" si="2"/>
         <v>1506</v>
       </c>
       <c r="C87" s="71"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="32"/>
+      <c r="D87" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="22">
+        <v>8910</v>
+      </c>
+      <c r="F87" s="23">
+        <v>45104</v>
+      </c>
+      <c r="G87" s="32">
+        <v>8910</v>
+      </c>
       <c r="H87" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="73"/>
+    <row r="88" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="73">
+        <v>45103</v>
+      </c>
       <c r="B88" s="70">
         <f t="shared" si="2"/>
         <v>1507</v>
       </c>
       <c r="C88" s="71"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="32"/>
+      <c r="D88" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="22">
+        <v>2453</v>
+      </c>
+      <c r="F88" s="23">
+        <v>45104</v>
+      </c>
+      <c r="G88" s="32">
+        <v>2453</v>
+      </c>
       <c r="H88" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="73"/>
+    <row r="89" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="73">
+        <v>45103</v>
+      </c>
       <c r="B89" s="70">
         <f t="shared" si="2"/>
         <v>1508</v>
       </c>
       <c r="C89" s="71"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="32"/>
+      <c r="D89" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="22">
+        <v>2785</v>
+      </c>
+      <c r="F89" s="23">
+        <v>45104</v>
+      </c>
+      <c r="G89" s="32">
+        <v>2785</v>
+      </c>
       <c r="H89" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="73"/>
+    <row r="90" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="73">
+        <v>45104</v>
+      </c>
       <c r="B90" s="70">
         <f t="shared" si="2"/>
         <v>1509</v>
       </c>
       <c r="C90" s="71"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="32"/>
+      <c r="D90" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="22">
+        <v>3172</v>
+      </c>
+      <c r="F90" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" s="32">
+        <f>2673+499</f>
+        <v>3172</v>
+      </c>
       <c r="H90" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
+    <row r="91" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="73">
+        <v>45104</v>
+      </c>
       <c r="B91" s="70">
         <f t="shared" si="2"/>
         <v>1510</v>
       </c>
       <c r="C91" s="71"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="22"/>
+      <c r="D91" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="22">
+        <v>6064</v>
+      </c>
       <c r="F91" s="23"/>
       <c r="G91" s="32"/>
       <c r="H91" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="73"/>
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="73">
+        <v>45104</v>
+      </c>
       <c r="B92" s="70">
         <f t="shared" si="2"/>
         <v>1511</v>
       </c>
       <c r="C92" s="71"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="32"/>
+      <c r="D92" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="22">
+        <v>3589</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" s="32">
+        <f>2000+1589</f>
+        <v>3589</v>
+      </c>
       <c r="H92" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="73"/>
+    <row r="93" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="73">
+        <v>45104</v>
+      </c>
       <c r="B93" s="70">
         <f t="shared" si="2"/>
         <v>1512</v>
       </c>
       <c r="C93" s="71"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="32"/>
+      <c r="D93" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="22">
+        <v>440</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G93" s="32">
+        <v>440</v>
+      </c>
       <c r="H93" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="73"/>
+    <row r="94" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="73">
+        <v>45104</v>
+      </c>
       <c r="B94" s="70">
         <f t="shared" si="2"/>
         <v>1513</v>
       </c>
       <c r="C94" s="71"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="32"/>
+      <c r="D94" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="22">
+        <v>4240</v>
+      </c>
+      <c r="F94" s="23">
+        <v>45106</v>
+      </c>
+      <c r="G94" s="32">
+        <v>4240</v>
+      </c>
       <c r="H94" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="73"/>
+    <row r="95" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="73">
+        <v>45106</v>
+      </c>
       <c r="B95" s="70">
         <f t="shared" si="2"/>
         <v>1514</v>
       </c>
       <c r="C95" s="71"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="32"/>
+      <c r="D95" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="22">
+        <v>1856</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G95" s="32">
+        <f>1056+600</f>
+        <v>1656</v>
+      </c>
       <c r="H95" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="73"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="73">
+        <v>45106</v>
+      </c>
       <c r="B96" s="70">
         <f t="shared" si="2"/>
         <v>1515</v>
       </c>
       <c r="C96" s="71"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="32"/>
+      <c r="D96" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="22">
+        <v>2953</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G96" s="32">
+        <f>2500</f>
+        <v>2500</v>
+      </c>
       <c r="H96" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="73"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="73">
+        <v>45107</v>
+      </c>
       <c r="B97" s="70">
         <f t="shared" si="2"/>
         <v>1516</v>
       </c>
       <c r="C97" s="71"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="22"/>
+      <c r="D97" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="22">
+        <v>3614</v>
+      </c>
       <c r="F97" s="23"/>
       <c r="G97" s="32"/>
       <c r="H97" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="73"/>
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="73">
+        <v>45107</v>
+      </c>
       <c r="B98" s="70">
         <f t="shared" si="2"/>
         <v>1517</v>
       </c>
       <c r="C98" s="71"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="22"/>
+      <c r="D98" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="22">
+        <v>11020</v>
+      </c>
       <c r="F98" s="23"/>
       <c r="G98" s="32"/>
       <c r="H98" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="73"/>
+        <v>11020</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="73">
+        <v>45107</v>
+      </c>
       <c r="B99" s="70">
         <f t="shared" si="2"/>
         <v>1518</v>
       </c>
       <c r="C99" s="71"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="22"/>
+      <c r="D99" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="22">
+        <v>11507</v>
+      </c>
       <c r="F99" s="23"/>
       <c r="G99" s="32"/>
       <c r="H99" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="73"/>
+        <v>11507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="73">
+        <v>45107</v>
+      </c>
       <c r="B100" s="70">
         <f t="shared" si="2"/>
         <v>1519</v>
       </c>
       <c r="C100" s="71"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="22"/>
+      <c r="D100" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="22">
+        <v>7776</v>
+      </c>
       <c r="F100" s="23"/>
       <c r="G100" s="32"/>
       <c r="H100" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="73"/>
       <c r="B101" s="70">
         <f t="shared" si="2"/>
@@ -17764,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="73"/>
       <c r="B102" s="70">
         <f t="shared" si="2"/>
@@ -17780,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="73"/>
       <c r="B103" s="70">
         <f t="shared" si="2"/>
@@ -17796,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="73"/>
       <c r="B104" s="70">
         <f t="shared" si="2"/>
@@ -17812,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="73"/>
       <c r="B105" s="70">
         <f t="shared" si="2"/>
@@ -17828,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="73"/>
       <c r="B106" s="70">
         <f t="shared" si="2"/>
@@ -17844,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="73"/>
       <c r="B107" s="70">
         <f t="shared" si="2"/>
@@ -17860,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="73"/>
       <c r="B108" s="70">
         <f t="shared" si="2"/>
@@ -17876,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="73"/>
       <c r="B109" s="70">
         <f t="shared" si="2"/>
@@ -17892,7 +18161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="73"/>
       <c r="B110" s="70">
         <f t="shared" si="2"/>
@@ -17908,7 +18177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="73"/>
       <c r="B111" s="70">
         <f t="shared" si="2"/>
@@ -17924,7 +18193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="73"/>
       <c r="B112" s="70">
         <f t="shared" si="2"/>
@@ -17940,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="73"/>
       <c r="B113" s="70">
         <f t="shared" si="2"/>
@@ -17956,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="73"/>
       <c r="B114" s="70">
         <f t="shared" si="2"/>
@@ -17972,7 +18241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="73"/>
       <c r="B115" s="70">
         <f t="shared" si="2"/>
@@ -17988,7 +18257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="73"/>
       <c r="B116" s="70">
         <f t="shared" si="2"/>
@@ -18004,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="73"/>
       <c r="B117" s="70">
         <f t="shared" si="2"/>
@@ -18020,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="73"/>
       <c r="B118" s="70">
         <f t="shared" si="2"/>
@@ -18036,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="73"/>
       <c r="B119" s="70">
         <f t="shared" si="2"/>
@@ -18052,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="73"/>
       <c r="B120" s="70">
         <f t="shared" si="2"/>
@@ -18113,16 +18382,16 @@
       <c r="D124" s="3"/>
       <c r="E124" s="46">
         <f>SUM(E4:E123)</f>
-        <v>440403</v>
+        <v>560867</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="47">
         <f>SUM(G4:G123)</f>
-        <v>391557</v>
+        <v>509943</v>
       </c>
       <c r="H124" s="48">
         <f>SUM(H4:H123)</f>
-        <v>48846</v>
+        <v>50924</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -18166,7 +18435,7 @@
       <c r="D128" s="3"/>
       <c r="E128" s="88">
         <f>E124-G124</f>
-        <v>48846</v>
+        <v>50924</v>
       </c>
       <c r="F128" s="89"/>
       <c r="G128" s="90"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #06  JUNIO  2023/CREDITOS  HERRADURA  JUNIO    2023.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="146">
   <si>
     <t xml:space="preserve">ABASTO 4 CARNES    H E R R A D U R A </t>
   </si>
@@ -458,7 +458,16 @@
     <t>29-Jun-23--30-Jun-23</t>
   </si>
   <si>
-    <t>30-Jun-23--</t>
+    <t>30-Jun-23--1-Jul-23</t>
+  </si>
+  <si>
+    <t>29-Jun-23--30-Jun-23--2-Jul-23</t>
+  </si>
+  <si>
+    <t>1-Jul-23--2-Jul-23</t>
+  </si>
+  <si>
+    <t>2-Jul-23--</t>
   </si>
 </sst>
 </file>
@@ -1658,13 +1667,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1711,13 +1720,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -15424,10 +15433,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15516,7 +15525,7 @@
         <v>15138</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H123" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H110" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="3"/>
@@ -17230,7 +17239,7 @@
         <v>45097</v>
       </c>
       <c r="B70" s="70">
-        <f t="shared" ref="B70:B120" si="2">B69+1</f>
+        <f t="shared" ref="B70:B107" si="2">B69+1</f>
         <v>1489</v>
       </c>
       <c r="C70" s="71"/>
@@ -17477,11 +17486,15 @@
       <c r="E79" s="22">
         <v>10290</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="32"/>
+      <c r="F79" s="23">
+        <v>45109</v>
+      </c>
+      <c r="G79" s="32">
+        <v>10290</v>
+      </c>
       <c r="H79" s="20">
         <f t="shared" si="0"/>
-        <v>10290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -17875,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
         <v>45106</v>
       </c>
@@ -17891,18 +17904,18 @@
         <v>1856</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G95" s="32">
-        <f>1056+600</f>
-        <v>1656</v>
+        <f>1056+600+200</f>
+        <v>1856</v>
       </c>
       <c r="H95" s="20">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A96" s="73">
         <v>45106</v>
       </c>
@@ -17921,15 +17934,15 @@
         <v>142</v>
       </c>
       <c r="G96" s="32">
-        <f>2500</f>
-        <v>2500</v>
+        <f>2500+453</f>
+        <v>2953</v>
       </c>
       <c r="H96" s="20">
         <f t="shared" si="0"/>
-        <v>453</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="73">
         <v>45107</v>
       </c>
@@ -17942,16 +17955,21 @@
         <v>15</v>
       </c>
       <c r="E97" s="22">
-        <v>3614</v>
-      </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="32"/>
+        <v>3814</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G97" s="32">
+        <f>2500+1314</f>
+        <v>3814</v>
+      </c>
       <c r="H97" s="20">
         <f t="shared" si="0"/>
-        <v>3614</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="73">
         <v>45107</v>
       </c>
@@ -17973,7 +17991,7 @@
         <v>11020</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="73">
         <v>45107</v>
       </c>
@@ -17995,7 +18013,7 @@
         <v>11507</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="73">
         <v>45107</v>
       </c>
@@ -18010,131 +18028,179 @@
       <c r="E100" s="22">
         <v>7776</v>
       </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="32"/>
+      <c r="F100" s="23">
+        <v>45108</v>
+      </c>
+      <c r="G100" s="32">
+        <v>7776</v>
+      </c>
       <c r="H100" s="20">
         <f t="shared" si="0"/>
-        <v>7776</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="73">
+        <v>45108</v>
+      </c>
       <c r="B101" s="70">
         <f t="shared" si="2"/>
         <v>1520</v>
       </c>
       <c r="C101" s="71"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="32"/>
+      <c r="D101" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="22">
+        <v>3755</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" s="32">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
       <c r="H101" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="73"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="73">
+        <v>45108</v>
+      </c>
       <c r="B102" s="70">
         <f t="shared" si="2"/>
         <v>1521</v>
       </c>
       <c r="C102" s="71"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="22"/>
+      <c r="D102" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="22">
+        <v>316</v>
+      </c>
       <c r="F102" s="23"/>
       <c r="G102" s="32"/>
       <c r="H102" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="73"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="73">
+        <v>45109</v>
+      </c>
       <c r="B103" s="70">
         <f t="shared" si="2"/>
         <v>1522</v>
       </c>
       <c r="C103" s="71"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="22"/>
+      <c r="D103" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="22">
+        <v>2858</v>
+      </c>
       <c r="F103" s="23"/>
       <c r="G103" s="32"/>
       <c r="H103" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="73"/>
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="73">
+        <v>45109</v>
+      </c>
       <c r="B104" s="70">
         <f t="shared" si="2"/>
         <v>1523</v>
       </c>
       <c r="C104" s="71"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="22"/>
+      <c r="D104" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" s="22">
+        <v>6854</v>
+      </c>
       <c r="F104" s="23"/>
       <c r="G104" s="32"/>
       <c r="H104" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="73"/>
+        <v>6854</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="73">
+        <v>45109</v>
+      </c>
       <c r="B105" s="70">
         <f t="shared" si="2"/>
         <v>1524</v>
       </c>
       <c r="C105" s="71"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="22"/>
+      <c r="D105" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="22">
+        <v>4239</v>
+      </c>
       <c r="F105" s="23"/>
       <c r="G105" s="32"/>
       <c r="H105" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="73">
+        <v>45109</v>
+      </c>
       <c r="B106" s="70">
         <f t="shared" si="2"/>
         <v>1525</v>
       </c>
       <c r="C106" s="71"/>
-      <c r="D106" s="35"/>
-      <c r="E106" s="22"/>
+      <c r="D106" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="22">
+        <v>10697</v>
+      </c>
       <c r="F106" s="23"/>
       <c r="G106" s="32"/>
       <c r="H106" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="73"/>
+        <v>10697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="73">
+        <v>45109</v>
+      </c>
       <c r="B107" s="70">
         <f t="shared" si="2"/>
         <v>1526</v>
       </c>
       <c r="C107" s="71"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="22"/>
+      <c r="D107" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="22">
+        <v>290</v>
+      </c>
       <c r="F107" s="23"/>
       <c r="G107" s="32"/>
       <c r="H107" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="73"/>
-      <c r="B108" s="70">
-        <f t="shared" si="2"/>
-        <v>1527</v>
-      </c>
+      <c r="B108" s="70"/>
       <c r="C108" s="71"/>
       <c r="D108" s="35"/>
       <c r="E108" s="22"/>
@@ -18145,12 +18211,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="73"/>
-      <c r="B109" s="70">
-        <f t="shared" si="2"/>
-        <v>1528</v>
-      </c>
+      <c r="B109" s="70"/>
       <c r="C109" s="71"/>
       <c r="D109" s="35"/>
       <c r="E109" s="22"/>
@@ -18161,13 +18224,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="73"/>
-      <c r="B110" s="70">
-        <f t="shared" si="2"/>
-        <v>1529</v>
-      </c>
-      <c r="C110" s="71"/>
+    <row r="110" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="35"/>
       <c r="E110" s="22"/>
       <c r="F110" s="23"/>
@@ -18177,222 +18237,153 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="73"/>
-      <c r="B111" s="70">
-        <f t="shared" si="2"/>
-        <v>1530</v>
-      </c>
-      <c r="C111" s="71"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="73"/>
-      <c r="B112" s="70">
-        <f t="shared" si="2"/>
-        <v>1531</v>
-      </c>
-      <c r="C112" s="71"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="73"/>
-      <c r="B113" s="70">
-        <f t="shared" si="2"/>
-        <v>1532</v>
-      </c>
-      <c r="C113" s="71"/>
-      <c r="D113" s="35"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="73"/>
-      <c r="B114" s="70">
-        <f t="shared" si="2"/>
-        <v>1533</v>
-      </c>
-      <c r="C114" s="71"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="73"/>
-      <c r="B115" s="70">
-        <f t="shared" si="2"/>
-        <v>1534</v>
-      </c>
-      <c r="C115" s="71"/>
-      <c r="D115" s="35"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="32"/>
-      <c r="H115" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="73"/>
-      <c r="B116" s="70">
-        <f t="shared" si="2"/>
-        <v>1535</v>
-      </c>
-      <c r="C116" s="71"/>
-      <c r="D116" s="35"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="73"/>
-      <c r="B117" s="70">
-        <f t="shared" si="2"/>
-        <v>1536</v>
-      </c>
-      <c r="C117" s="71"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="73"/>
-      <c r="B118" s="70">
-        <f t="shared" si="2"/>
-        <v>1537</v>
-      </c>
-      <c r="C118" s="71"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="73"/>
-      <c r="B119" s="70">
-        <f t="shared" si="2"/>
-        <v>1538</v>
-      </c>
-      <c r="C119" s="71"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="73"/>
-      <c r="B120" s="70">
-        <f t="shared" si="2"/>
-        <v>1539</v>
-      </c>
-      <c r="C120" s="71"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="73"/>
-      <c r="B121" s="70"/>
-      <c r="C121" s="71"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="73"/>
-      <c r="B122" s="70"/>
-      <c r="C122" s="71"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="46">
+        <f>SUM(E4:E110)</f>
+        <v>590076</v>
+      </c>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47">
+        <f>SUM(G4:G110)</f>
+        <v>535476</v>
+      </c>
+      <c r="H111" s="48">
+        <f>SUM(H4:H110)</f>
+        <v>54600</v>
+      </c>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="44"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="50"/>
+      <c r="G113" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="51"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="88">
+        <f>E111-G111</f>
+        <v>54600</v>
+      </c>
+      <c r="F115" s="89"/>
+      <c r="G115" s="90"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="64"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B117" s="44"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="91"/>
+      <c r="G117" s="91"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="44"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="64"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="24"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="65"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="44"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="64"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="44"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="64"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="44"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="64"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="44"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="64"/>
+      <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B124" s="44"/>
       <c r="C124" s="45"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="46">
-        <f>SUM(E4:E123)</f>
-        <v>560867</v>
-      </c>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47">
-        <f>SUM(G4:G123)</f>
-        <v>509943</v>
-      </c>
-      <c r="H124" s="48">
-        <f>SUM(H4:H123)</f>
-        <v>50924</v>
-      </c>
+      <c r="E124" s="49"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="64"/>
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -18402,171 +18393,41 @@
       <c r="E125" s="49"/>
       <c r="F125" s="50"/>
       <c r="G125" s="64"/>
-      <c r="H125" s="51"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B126" s="44"/>
       <c r="C126" s="45"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="52" t="s">
-        <v>8</v>
-      </c>
+      <c r="E126" s="49"/>
       <c r="F126" s="50"/>
-      <c r="G126" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="H126" s="51"/>
+      <c r="G126" s="64"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="44"/>
       <c r="C127" s="45"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="52"/>
+      <c r="E127" s="49"/>
       <c r="F127" s="50"/>
-      <c r="G127" s="53"/>
-      <c r="H127" s="51"/>
+      <c r="G127" s="64"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B128" s="44"/>
       <c r="C128" s="45"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="88">
-        <f>E124-G124</f>
-        <v>50924</v>
-      </c>
-      <c r="F128" s="89"/>
-      <c r="G128" s="90"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="64"/>
       <c r="I128" s="3"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="44"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="64"/>
-      <c r="I129" s="3"/>
-    </row>
-    <row r="130" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B130" s="44"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="91"/>
-      <c r="G130" s="91"/>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="44"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="64"/>
-      <c r="I131" s="3"/>
-    </row>
-    <row r="132" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A132" s="24"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="55"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="65"/>
-      <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="44"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="64"/>
-      <c r="I133" s="3"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="44"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="64"/>
-      <c r="I134" s="3"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="44"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="64"/>
-      <c r="I135" s="3"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="44"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="64"/>
-      <c r="I136" s="3"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="44"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="64"/>
-      <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="44"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="64"/>
-      <c r="I138" s="3"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="44"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="64"/>
-      <c r="I139" s="3"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B140" s="44"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="64"/>
-      <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="44"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="64"/>
-      <c r="I141" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E117:G117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
